--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1644"/>
+  <dimension ref="A1:Q1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87220,7 +87220,7 @@
         <v>4</v>
       </c>
       <c r="N1637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1637" t="n">
         <v>0</v>
@@ -87281,7 +87281,9 @@
       <c r="P1638" t="n">
         <v>0</v>
       </c>
-      <c r="Q1638" t="inlineStr"/>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -87332,7 +87334,9 @@
       <c r="P1639" t="n">
         <v>0</v>
       </c>
-      <c r="Q1639" t="inlineStr"/>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -87383,7 +87387,9 @@
       <c r="P1640" t="n">
         <v>1</v>
       </c>
-      <c r="Q1640" t="inlineStr"/>
+      <c r="Q1640" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -87434,7 +87440,9 @@
       <c r="P1641" t="n">
         <v>0</v>
       </c>
-      <c r="Q1641" t="inlineStr"/>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -87485,7 +87493,9 @@
       <c r="P1642" t="n">
         <v>0</v>
       </c>
-      <c r="Q1642" t="inlineStr"/>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -87536,7 +87546,9 @@
       <c r="P1643" t="n">
         <v>0</v>
       </c>
-      <c r="Q1643" t="inlineStr"/>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -87587,7 +87599,723 @@
       <c r="P1644" t="n">
         <v>0</v>
       </c>
-      <c r="Q1644" t="inlineStr"/>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>669</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>678.9500122070312</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>643.7000122070312</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>639.5999755859375</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>633</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>616.4000244140625</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>632</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>636.7000122070312</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>636.75</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>636.75</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>620.5</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>620.5</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>603.1500244140625</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>618.2999877929688</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>618.5</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>612</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>602</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>602</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>598.0499877929688</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>597</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>605</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>600.2000122070312</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>601.2999877929688</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>601.2999877929688</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1658"/>
+  <dimension ref="A1:Q1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87652,7 +87652,9 @@
       <c r="P1645" t="n">
         <v>0</v>
       </c>
-      <c r="Q1645" t="inlineStr"/>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -87703,7 +87705,9 @@
       <c r="P1646" t="n">
         <v>0</v>
       </c>
-      <c r="Q1646" t="inlineStr"/>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -87754,7 +87758,9 @@
       <c r="P1647" t="n">
         <v>0</v>
       </c>
-      <c r="Q1647" t="inlineStr"/>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -87805,7 +87811,9 @@
       <c r="P1648" t="n">
         <v>2</v>
       </c>
-      <c r="Q1648" t="inlineStr"/>
+      <c r="Q1648" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -87856,7 +87864,9 @@
       <c r="P1649" t="n">
         <v>0</v>
       </c>
-      <c r="Q1649" t="inlineStr"/>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -87907,7 +87917,9 @@
       <c r="P1650" t="n">
         <v>0</v>
       </c>
-      <c r="Q1650" t="inlineStr"/>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -87958,7 +87970,9 @@
       <c r="P1651" t="n">
         <v>0</v>
       </c>
-      <c r="Q1651" t="inlineStr"/>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -88009,7 +88023,9 @@
       <c r="P1652" t="n">
         <v>0</v>
       </c>
-      <c r="Q1652" t="inlineStr"/>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -88060,7 +88076,9 @@
       <c r="P1653" t="n">
         <v>0</v>
       </c>
-      <c r="Q1653" t="inlineStr"/>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -88103,7 +88121,7 @@
         <v>5</v>
       </c>
       <c r="N1654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1654" t="n">
         <v>0</v>
@@ -88111,7 +88129,9 @@
       <c r="P1654" t="n">
         <v>0</v>
       </c>
-      <c r="Q1654" t="inlineStr"/>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -88162,7 +88182,9 @@
       <c r="P1655" t="n">
         <v>0</v>
       </c>
-      <c r="Q1655" t="inlineStr"/>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -88213,7 +88235,9 @@
       <c r="P1656" t="n">
         <v>0</v>
       </c>
-      <c r="Q1656" t="inlineStr"/>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -88264,7 +88288,9 @@
       <c r="P1657" t="n">
         <v>0</v>
       </c>
-      <c r="Q1657" t="inlineStr"/>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -88315,7 +88341,723 @@
       <c r="P1658" t="n">
         <v>0</v>
       </c>
-      <c r="Q1658" t="inlineStr"/>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>619</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>619</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>630</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>640</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>640</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>631</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>631</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>629.0999755859375</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>634.9000244140625</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>628</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>634.9000244140625</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>635</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>635</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>635</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>643</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>643</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>643</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>643</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>643</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>643</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>643</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>643</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>643</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>659</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>635.0499877929688</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>659</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>668.9500122070312</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>699.75</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>699.75</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>676</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>676.2000122070312</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>676.2000122070312</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>695</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>681</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>681</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>681</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>681</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>665</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>665</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>676.0999755859375</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>658.7000122070312</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>659.5</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>668</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>668</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>661.2000122070312</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>661.2000122070312</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1672"/>
+  <dimension ref="A1:Q1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88394,7 +88394,9 @@
       <c r="P1659" t="n">
         <v>0</v>
       </c>
-      <c r="Q1659" t="inlineStr"/>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -88445,7 +88447,9 @@
       <c r="P1660" t="n">
         <v>0</v>
       </c>
-      <c r="Q1660" t="inlineStr"/>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -88496,7 +88500,9 @@
       <c r="P1661" t="n">
         <v>0</v>
       </c>
-      <c r="Q1661" t="inlineStr"/>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -88547,7 +88553,9 @@
       <c r="P1662" t="n">
         <v>0</v>
       </c>
-      <c r="Q1662" t="inlineStr"/>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -88598,7 +88606,9 @@
       <c r="P1663" t="n">
         <v>0</v>
       </c>
-      <c r="Q1663" t="inlineStr"/>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -88649,7 +88659,9 @@
       <c r="P1664" t="n">
         <v>0</v>
       </c>
-      <c r="Q1664" t="inlineStr"/>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -88700,7 +88712,9 @@
       <c r="P1665" t="n">
         <v>1</v>
       </c>
-      <c r="Q1665" t="inlineStr"/>
+      <c r="Q1665" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -88751,7 +88765,9 @@
       <c r="P1666" t="n">
         <v>0</v>
       </c>
-      <c r="Q1666" t="inlineStr"/>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -88794,7 +88810,7 @@
         <v>5</v>
       </c>
       <c r="N1667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1667" t="n">
         <v>0</v>
@@ -88802,7 +88818,9 @@
       <c r="P1667" t="n">
         <v>0</v>
       </c>
-      <c r="Q1667" t="inlineStr"/>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -88853,7 +88871,9 @@
       <c r="P1668" t="n">
         <v>0</v>
       </c>
-      <c r="Q1668" t="inlineStr"/>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -88904,7 +88924,9 @@
       <c r="P1669" t="n">
         <v>0</v>
       </c>
-      <c r="Q1669" t="inlineStr"/>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -88955,7 +88977,9 @@
       <c r="P1670" t="n">
         <v>0</v>
       </c>
-      <c r="Q1670" t="inlineStr"/>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -89006,7 +89030,9 @@
       <c r="P1671" t="n">
         <v>0</v>
       </c>
-      <c r="Q1671" t="inlineStr"/>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -89057,7 +89083,621 @@
       <c r="P1672" t="n">
         <v>0</v>
       </c>
-      <c r="Q1672" t="inlineStr"/>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>678</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>678</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>678</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>674</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>674</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>674</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>674</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>673.9500122070312</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>685.9000244140625</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>684.7000122070312</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>687.75</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>667</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>667</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>650</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>659.4000244140625</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>659.4000244140625</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>638</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>659.5</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>638</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>656</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>640</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>650</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>637</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>646</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>637</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>646</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>638.5</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>649.75</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>636.75</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>649</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>652</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>652</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>642.5</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>648</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>652</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>654.75</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>648.1500244140625</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>648.1500244140625</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1684"/>
+  <dimension ref="A1:Q1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89136,7 +89136,9 @@
       <c r="P1673" t="n">
         <v>0</v>
       </c>
-      <c r="Q1673" t="inlineStr"/>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -89187,7 +89189,9 @@
       <c r="P1674" t="n">
         <v>0</v>
       </c>
-      <c r="Q1674" t="inlineStr"/>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -89238,7 +89242,9 @@
       <c r="P1675" t="n">
         <v>0</v>
       </c>
-      <c r="Q1675" t="inlineStr"/>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -89289,7 +89295,9 @@
       <c r="P1676" t="n">
         <v>0</v>
       </c>
-      <c r="Q1676" t="inlineStr"/>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -89340,7 +89348,9 @@
       <c r="P1677" t="n">
         <v>0</v>
       </c>
-      <c r="Q1677" t="inlineStr"/>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -89391,7 +89401,9 @@
       <c r="P1678" t="n">
         <v>2</v>
       </c>
-      <c r="Q1678" t="inlineStr"/>
+      <c r="Q1678" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -89442,7 +89454,9 @@
       <c r="P1679" t="n">
         <v>0</v>
       </c>
-      <c r="Q1679" t="inlineStr"/>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -89485,7 +89499,7 @@
         <v>6</v>
       </c>
       <c r="N1680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1680" t="n">
         <v>0</v>
@@ -89493,7 +89507,9 @@
       <c r="P1680" t="n">
         <v>0</v>
       </c>
-      <c r="Q1680" t="inlineStr"/>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -89544,7 +89560,9 @@
       <c r="P1681" t="n">
         <v>0</v>
       </c>
-      <c r="Q1681" t="inlineStr"/>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -89595,7 +89613,9 @@
       <c r="P1682" t="n">
         <v>0</v>
       </c>
-      <c r="Q1682" t="inlineStr"/>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -89646,7 +89666,9 @@
       <c r="P1683" t="n">
         <v>0</v>
       </c>
-      <c r="Q1683" t="inlineStr"/>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -89697,7 +89719,570 @@
       <c r="P1684" t="n">
         <v>0</v>
       </c>
-      <c r="Q1684" t="inlineStr"/>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>660</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>660</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>660</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>660</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>652.9000244140625</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>647.0499877929688</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>647.7000122070312</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>647</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>647.9000244140625</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>647</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>647.5499877929688</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>678.9000244140625</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>678.9000244140625</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>664.9000244140625</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>673</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>662.25</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>662.25</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>670.0499877929688</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>655</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>655</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>676.6500244140625</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>678.7000122070312</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>670.25</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1695"/>
+  <dimension ref="A1:Q1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89407,19 +89407,19 @@
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
-        <v>45691.38541666666</v>
+        <v>45689.63541666666</v>
       </c>
       <c r="B1679" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C1679" t="n">
-        <v>659.5</v>
+        <v>637</v>
       </c>
       <c r="D1679" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E1679" t="n">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="F1679" t="n">
         <v>0</v>
@@ -89431,10 +89431,10 @@
         <v>2</v>
       </c>
       <c r="I1679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1679" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1679" t="n">
         <v>15</v>
@@ -89443,7 +89443,7 @@
         <v>0</v>
       </c>
       <c r="M1679" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1679" t="n">
         <v>0</v>
@@ -89454,28 +89454,26 @@
       <c r="P1679" t="n">
         <v>0</v>
       </c>
-      <c r="Q1679" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q1679" t="inlineStr"/>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
-        <v>45691.42708333334</v>
+        <v>45691.38541666666</v>
       </c>
       <c r="B1680" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C1680" t="n">
-        <v>650</v>
+        <v>659.5</v>
       </c>
       <c r="D1680" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E1680" t="n">
-        <v>649.9500122070312</v>
+        <v>656</v>
       </c>
       <c r="F1680" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G1680" t="n">
         <v>2025</v>
@@ -89487,7 +89485,7 @@
         <v>3</v>
       </c>
       <c r="J1680" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1680" t="n">
         <v>15</v>
@@ -89499,7 +89497,7 @@
         <v>6</v>
       </c>
       <c r="N1680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O1680" t="n">
         <v>0</v>
@@ -89513,22 +89511,22 @@
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
-        <v>45691.46875</v>
+        <v>45691.42708333334</v>
       </c>
       <c r="B1681" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C1681" t="n">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D1681" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E1681" t="n">
-        <v>646</v>
+        <v>649.9500122070312</v>
       </c>
       <c r="F1681" t="n">
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="G1681" t="n">
         <v>2025</v>
@@ -89540,7 +89538,7 @@
         <v>3</v>
       </c>
       <c r="J1681" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1681" t="n">
         <v>15</v>
@@ -89552,7 +89550,7 @@
         <v>6</v>
       </c>
       <c r="N1681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1681" t="n">
         <v>0</v>
@@ -89566,22 +89564,22 @@
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
-        <v>45691.55208333334</v>
+        <v>45691.46875</v>
       </c>
       <c r="B1682" t="n">
-        <v>638.5</v>
+        <v>637</v>
       </c>
       <c r="C1682" t="n">
-        <v>649.75</v>
+        <v>646</v>
       </c>
       <c r="D1682" t="n">
-        <v>636.75</v>
+        <v>637</v>
       </c>
       <c r="E1682" t="n">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F1682" t="n">
-        <v>2750</v>
+        <v>1750</v>
       </c>
       <c r="G1682" t="n">
         <v>2025</v>
@@ -89593,7 +89591,7 @@
         <v>3</v>
       </c>
       <c r="J1682" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1682" t="n">
         <v>15</v>
@@ -89619,22 +89617,22 @@
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
-        <v>45691.59375</v>
+        <v>45691.55208333334</v>
       </c>
       <c r="B1683" t="n">
-        <v>652</v>
+        <v>638.5</v>
       </c>
       <c r="C1683" t="n">
-        <v>652</v>
+        <v>649.75</v>
       </c>
       <c r="D1683" t="n">
-        <v>642.5</v>
+        <v>636.75</v>
       </c>
       <c r="E1683" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F1683" t="n">
-        <v>2000</v>
+        <v>2750</v>
       </c>
       <c r="G1683" t="n">
         <v>2025</v>
@@ -89646,7 +89644,7 @@
         <v>3</v>
       </c>
       <c r="J1683" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1683" t="n">
         <v>15</v>
@@ -89672,22 +89670,22 @@
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
-        <v>45691.63541666666</v>
+        <v>45691.59375</v>
       </c>
       <c r="B1684" t="n">
         <v>652</v>
       </c>
       <c r="C1684" t="n">
-        <v>654.75</v>
+        <v>652</v>
       </c>
       <c r="D1684" t="n">
-        <v>648.1500244140625</v>
+        <v>642.5</v>
       </c>
       <c r="E1684" t="n">
-        <v>648.1500244140625</v>
+        <v>648</v>
       </c>
       <c r="F1684" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="G1684" t="n">
         <v>2025</v>
@@ -89699,7 +89697,7 @@
         <v>3</v>
       </c>
       <c r="J1684" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1684" t="n">
         <v>15</v>
@@ -89725,22 +89723,22 @@
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
-        <v>45692.42708333334</v>
+        <v>45691.63541666666</v>
       </c>
       <c r="B1685" t="n">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="C1685" t="n">
-        <v>670</v>
+        <v>654.75</v>
       </c>
       <c r="D1685" t="n">
-        <v>660</v>
+        <v>648.1500244140625</v>
       </c>
       <c r="E1685" t="n">
-        <v>660</v>
+        <v>648.1500244140625</v>
       </c>
       <c r="F1685" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="G1685" t="n">
         <v>2025</v>
@@ -89749,10 +89747,10 @@
         <v>2</v>
       </c>
       <c r="I1685" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1685" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K1685" t="n">
         <v>15</v>
@@ -89772,17 +89770,19 @@
       <c r="P1685" t="n">
         <v>0</v>
       </c>
-      <c r="Q1685" t="inlineStr"/>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
-        <v>45692.46875</v>
+        <v>45692.42708333334</v>
       </c>
       <c r="B1686" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C1686" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="D1686" t="n">
         <v>660</v>
@@ -89791,7 +89791,7 @@
         <v>660</v>
       </c>
       <c r="F1686" t="n">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="G1686" t="n">
         <v>2025</v>
@@ -89803,7 +89803,7 @@
         <v>4</v>
       </c>
       <c r="J1686" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1686" t="n">
         <v>15</v>
@@ -89823,11 +89823,13 @@
       <c r="P1686" t="n">
         <v>0</v>
       </c>
-      <c r="Q1686" t="inlineStr"/>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
-        <v>45692.55208333334</v>
+        <v>45692.46875</v>
       </c>
       <c r="B1687" t="n">
         <v>660</v>
@@ -89842,7 +89844,7 @@
         <v>660</v>
       </c>
       <c r="F1687" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="G1687" t="n">
         <v>2025</v>
@@ -89854,7 +89856,7 @@
         <v>4</v>
       </c>
       <c r="J1687" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1687" t="n">
         <v>15</v>
@@ -89874,26 +89876,28 @@
       <c r="P1687" t="n">
         <v>0</v>
       </c>
-      <c r="Q1687" t="inlineStr"/>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
-        <v>45692.59375</v>
+        <v>45692.55208333334</v>
       </c>
       <c r="B1688" t="n">
-        <v>647.0499877929688</v>
+        <v>660</v>
       </c>
       <c r="C1688" t="n">
-        <v>652.9000244140625</v>
+        <v>660</v>
       </c>
       <c r="D1688" t="n">
-        <v>647.0499877929688</v>
+        <v>660</v>
       </c>
       <c r="E1688" t="n">
-        <v>647.7000122070312</v>
+        <v>660</v>
       </c>
       <c r="F1688" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="G1688" t="n">
         <v>2025</v>
@@ -89905,7 +89909,7 @@
         <v>4</v>
       </c>
       <c r="J1688" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1688" t="n">
         <v>15</v>
@@ -89925,26 +89929,28 @@
       <c r="P1688" t="n">
         <v>0</v>
       </c>
-      <c r="Q1688" t="inlineStr"/>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
-        <v>45692.63541666666</v>
+        <v>45692.59375</v>
       </c>
       <c r="B1689" t="n">
-        <v>647</v>
+        <v>647.0499877929688</v>
       </c>
       <c r="C1689" t="n">
-        <v>647.9000244140625</v>
+        <v>652.9000244140625</v>
       </c>
       <c r="D1689" t="n">
-        <v>647</v>
+        <v>647.0499877929688</v>
       </c>
       <c r="E1689" t="n">
-        <v>647.5499877929688</v>
+        <v>647.7000122070312</v>
       </c>
       <c r="F1689" t="n">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="G1689" t="n">
         <v>2025</v>
@@ -89956,7 +89962,7 @@
         <v>4</v>
       </c>
       <c r="J1689" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1689" t="n">
         <v>15</v>
@@ -89976,26 +89982,28 @@
       <c r="P1689" t="n">
         <v>0</v>
       </c>
-      <c r="Q1689" t="inlineStr"/>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
-        <v>45693.38541666666</v>
+        <v>45692.63541666666</v>
       </c>
       <c r="B1690" t="n">
-        <v>678.9000244140625</v>
+        <v>647</v>
       </c>
       <c r="C1690" t="n">
-        <v>678.9000244140625</v>
+        <v>647.9000244140625</v>
       </c>
       <c r="D1690" t="n">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E1690" t="n">
-        <v>664.9000244140625</v>
+        <v>647.5499877929688</v>
       </c>
       <c r="F1690" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G1690" t="n">
         <v>2025</v>
@@ -90004,10 +90012,10 @@
         <v>2</v>
       </c>
       <c r="I1690" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1690" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1690" t="n">
         <v>15</v>
@@ -90027,26 +90035,28 @@
       <c r="P1690" t="n">
         <v>0</v>
       </c>
-      <c r="Q1690" t="inlineStr"/>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
-        <v>45693.42708333334</v>
+        <v>45693.38541666666</v>
       </c>
       <c r="B1691" t="n">
-        <v>670</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="C1691" t="n">
-        <v>670</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="D1691" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E1691" t="n">
-        <v>670</v>
+        <v>664.9000244140625</v>
       </c>
       <c r="F1691" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G1691" t="n">
         <v>2025</v>
@@ -90058,7 +90068,7 @@
         <v>5</v>
       </c>
       <c r="J1691" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1691" t="n">
         <v>15</v>
@@ -90076,28 +90086,30 @@
         <v>0</v>
       </c>
       <c r="P1691" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1691" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
-        <v>45693.46875</v>
+        <v>45693.42708333334</v>
       </c>
       <c r="B1692" t="n">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C1692" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D1692" t="n">
-        <v>662.25</v>
+        <v>670</v>
       </c>
       <c r="E1692" t="n">
-        <v>662.25</v>
+        <v>670</v>
       </c>
       <c r="F1692" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="G1692" t="n">
         <v>2025</v>
@@ -90109,7 +90121,7 @@
         <v>5</v>
       </c>
       <c r="J1692" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1692" t="n">
         <v>15</v>
@@ -90127,28 +90139,30 @@
         <v>0</v>
       </c>
       <c r="P1692" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
-        <v>45693.55208333334</v>
+        <v>45693.46875</v>
       </c>
       <c r="B1693" t="n">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C1693" t="n">
-        <v>670.0499877929688</v>
+        <v>675</v>
       </c>
       <c r="D1693" t="n">
-        <v>655</v>
+        <v>662.25</v>
       </c>
       <c r="E1693" t="n">
-        <v>655</v>
+        <v>662.25</v>
       </c>
       <c r="F1693" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="G1693" t="n">
         <v>2025</v>
@@ -90160,7 +90174,7 @@
         <v>5</v>
       </c>
       <c r="J1693" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1693" t="n">
         <v>15</v>
@@ -90180,26 +90194,28 @@
       <c r="P1693" t="n">
         <v>0</v>
       </c>
-      <c r="Q1693" t="inlineStr"/>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
-        <v>45693.59375</v>
+        <v>45693.55208333334</v>
       </c>
       <c r="B1694" t="n">
-        <v>678.7000122070312</v>
+        <v>670</v>
       </c>
       <c r="C1694" t="n">
-        <v>678.7000122070312</v>
+        <v>670.0499877929688</v>
       </c>
       <c r="D1694" t="n">
-        <v>676.6500244140625</v>
+        <v>655</v>
       </c>
       <c r="E1694" t="n">
-        <v>678.7000122070312</v>
+        <v>655</v>
       </c>
       <c r="F1694" t="n">
-        <v>2000</v>
+        <v>2750</v>
       </c>
       <c r="G1694" t="n">
         <v>2025</v>
@@ -90211,7 +90227,7 @@
         <v>5</v>
       </c>
       <c r="J1694" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1694" t="n">
         <v>15</v>
@@ -90231,26 +90247,28 @@
       <c r="P1694" t="n">
         <v>0</v>
       </c>
-      <c r="Q1694" t="inlineStr"/>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
-        <v>45693.63541666666</v>
+        <v>45693.59375</v>
       </c>
       <c r="B1695" t="n">
-        <v>670.2999877929688</v>
+        <v>678.7000122070312</v>
       </c>
       <c r="C1695" t="n">
-        <v>670.2999877929688</v>
+        <v>678.7000122070312</v>
       </c>
       <c r="D1695" t="n">
-        <v>670.25</v>
+        <v>676.6500244140625</v>
       </c>
       <c r="E1695" t="n">
-        <v>670.2999877929688</v>
+        <v>678.7000122070312</v>
       </c>
       <c r="F1695" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G1695" t="n">
         <v>2025</v>
@@ -90262,7 +90280,7 @@
         <v>5</v>
       </c>
       <c r="J1695" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1695" t="n">
         <v>15</v>
@@ -90282,7 +90300,1031 @@
       <c r="P1695" t="n">
         <v>0</v>
       </c>
-      <c r="Q1695" t="inlineStr"/>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>670.25</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>670.2999877929688</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>673</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>673</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>668</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>672</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>33250</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>655.0499877929688</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>655.0499877929688</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>6250</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>658.0499877929688</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>672</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>658.0499877929688</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>672</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>672</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>673</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>669.25</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>669.25</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>671.7999877929688</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>670</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>681.2999877929688</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>695</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>694.9500122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>694.9500122070312</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>650.0999755859375</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>648</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>654.75</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>645</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>654.75</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>640</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>640</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>615.0499877929688</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>621</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>620</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>629</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>620</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>621</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>618.0499877929688</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>624</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>620.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>620.25</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>623</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>618</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>623</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1715"/>
+  <dimension ref="A1:Q1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89454,7 +89454,9 @@
       <c r="P1679" t="n">
         <v>0</v>
       </c>
-      <c r="Q1679" t="inlineStr"/>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -90406,7 +90408,9 @@
       <c r="P1697" t="n">
         <v>0</v>
       </c>
-      <c r="Q1697" t="inlineStr"/>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="P1698" t="n">
         <v>0</v>
       </c>
-      <c r="Q1698" t="inlineStr"/>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -90508,7 +90514,9 @@
       <c r="P1699" t="n">
         <v>0</v>
       </c>
-      <c r="Q1699" t="inlineStr"/>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -90559,7 +90567,9 @@
       <c r="P1700" t="n">
         <v>0</v>
       </c>
-      <c r="Q1700" t="inlineStr"/>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -90610,7 +90620,9 @@
       <c r="P1701" t="n">
         <v>0</v>
       </c>
-      <c r="Q1701" t="inlineStr"/>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -90661,7 +90673,9 @@
       <c r="P1702" t="n">
         <v>0</v>
       </c>
-      <c r="Q1702" t="inlineStr"/>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -90712,7 +90726,9 @@
       <c r="P1703" t="n">
         <v>0</v>
       </c>
-      <c r="Q1703" t="inlineStr"/>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -90763,7 +90779,9 @@
       <c r="P1704" t="n">
         <v>0</v>
       </c>
-      <c r="Q1704" t="inlineStr"/>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -90814,7 +90832,9 @@
       <c r="P1705" t="n">
         <v>0</v>
       </c>
-      <c r="Q1705" t="inlineStr"/>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -90865,7 +90885,9 @@
       <c r="P1706" t="n">
         <v>0</v>
       </c>
-      <c r="Q1706" t="inlineStr"/>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -90916,7 +90938,9 @@
       <c r="P1707" t="n">
         <v>0</v>
       </c>
-      <c r="Q1707" t="inlineStr"/>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -90967,7 +90991,9 @@
       <c r="P1708" t="n">
         <v>0</v>
       </c>
-      <c r="Q1708" t="inlineStr"/>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -91018,7 +91044,9 @@
       <c r="P1709" t="n">
         <v>0</v>
       </c>
-      <c r="Q1709" t="inlineStr"/>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -91069,7 +91097,9 @@
       <c r="P1710" t="n">
         <v>0</v>
       </c>
-      <c r="Q1710" t="inlineStr"/>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -91120,7 +91150,9 @@
       <c r="P1711" t="n">
         <v>0</v>
       </c>
-      <c r="Q1711" t="inlineStr"/>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -91171,7 +91203,9 @@
       <c r="P1712" t="n">
         <v>0</v>
       </c>
-      <c r="Q1712" t="inlineStr"/>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -91222,7 +91256,9 @@
       <c r="P1713" t="n">
         <v>0</v>
       </c>
-      <c r="Q1713" t="inlineStr"/>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -91273,7 +91309,9 @@
       <c r="P1714" t="n">
         <v>0</v>
       </c>
-      <c r="Q1714" t="inlineStr"/>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -91324,7 +91362,723 @@
       <c r="P1715" t="n">
         <v>0</v>
       </c>
-      <c r="Q1715" t="inlineStr"/>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>602</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>624.8499755859375</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>624.8499755859375</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>620</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>602</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>602</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>601.5</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>601.5</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>601</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>599</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>606</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>606</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>606</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>621</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>605</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>613</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>613</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>620</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>619.9500122070312</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>645</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>618</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>635</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>635</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>635</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>620</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>623.1500244140625</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
+++ b/stock_historical_data/60m/DENTALKART-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1729"/>
+  <dimension ref="A1:Q1743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91415,7 +91415,9 @@
       <c r="P1716" t="n">
         <v>2</v>
       </c>
-      <c r="Q1716" t="inlineStr"/>
+      <c r="Q1716" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -91466,7 +91468,9 @@
       <c r="P1717" t="n">
         <v>0</v>
       </c>
-      <c r="Q1717" t="inlineStr"/>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -91517,7 +91521,9 @@
       <c r="P1718" t="n">
         <v>0</v>
       </c>
-      <c r="Q1718" t="inlineStr"/>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -91568,7 +91574,9 @@
       <c r="P1719" t="n">
         <v>0</v>
       </c>
-      <c r="Q1719" t="inlineStr"/>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -91619,7 +91627,9 @@
       <c r="P1720" t="n">
         <v>0</v>
       </c>
-      <c r="Q1720" t="inlineStr"/>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -91670,7 +91680,9 @@
       <c r="P1721" t="n">
         <v>0</v>
       </c>
-      <c r="Q1721" t="inlineStr"/>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -91721,7 +91733,9 @@
       <c r="P1722" t="n">
         <v>0</v>
       </c>
-      <c r="Q1722" t="inlineStr"/>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -91772,7 +91786,9 @@
       <c r="P1723" t="n">
         <v>0</v>
       </c>
-      <c r="Q1723" t="inlineStr"/>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -91815,7 +91831,7 @@
         <v>7</v>
       </c>
       <c r="N1724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1724" t="n">
         <v>0</v>
@@ -91823,7 +91839,9 @@
       <c r="P1724" t="n">
         <v>0</v>
       </c>
-      <c r="Q1724" t="inlineStr"/>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -91866,7 +91884,7 @@
         <v>7</v>
       </c>
       <c r="N1725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1725" t="n">
         <v>0</v>
@@ -91874,7 +91892,9 @@
       <c r="P1725" t="n">
         <v>0</v>
       </c>
-      <c r="Q1725" t="inlineStr"/>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -91925,7 +91945,9 @@
       <c r="P1726" t="n">
         <v>0</v>
       </c>
-      <c r="Q1726" t="inlineStr"/>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -91976,7 +91998,9 @@
       <c r="P1727" t="n">
         <v>0</v>
       </c>
-      <c r="Q1727" t="inlineStr"/>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -92019,7 +92043,7 @@
         <v>7</v>
       </c>
       <c r="N1728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1728" t="n">
         <v>0</v>
@@ -92027,7 +92051,9 @@
       <c r="P1728" t="n">
         <v>0</v>
       </c>
-      <c r="Q1728" t="inlineStr"/>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -92078,7 +92104,723 @@
       <c r="P1729" t="n">
         <v>0</v>
       </c>
-      <c r="Q1729" t="inlineStr"/>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>629.5499877929688</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>640</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>625</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>620</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>622</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>621</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>621</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>750</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>621.9500122070312</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>622</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>617.2000122070312</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>617.2000122070312</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>612</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>612</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>612</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>602.7000122070312</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>600.5999755859375</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>594</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>608</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>598</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>600</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>590.0499877929688</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>610</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>604.75</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>604.75</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>584</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>533</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>569.5999755859375</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
